--- a/files/downloads/Kalkulation_der_Preise_GeorgiosKyloudis.xlsx
+++ b/files/downloads/Kalkulation_der_Preise_GeorgiosKyloudis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magda Geo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F09B1-1F09-45FF-B2C2-4EBF6EE8C765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D14B509-3BCD-4A38-B553-889A6FCA16FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>EURO</t>
   </si>
   <si>
-    <t>TAGE</t>
-  </si>
-  <si>
     <t>IST Analyse</t>
   </si>
   <si>
@@ -230,6 +231,36 @@
   </si>
   <si>
     <t>Review und Erprobung der Schulung mittels Tests</t>
+  </si>
+  <si>
+    <t>Projektleiter Tage</t>
+  </si>
+  <si>
+    <t>Seniorconsultant Tage</t>
+  </si>
+  <si>
+    <t>Juniorconsultant Tage</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>AP130.1</t>
+  </si>
+  <si>
+    <t>Barrierefreie Anfertigung aller Dokumente (Pauschal)</t>
+  </si>
+  <si>
+    <t>Gemäß AP130 Gruppeninterviews je OE (0,5PT Senior und Junior Consultant)</t>
+  </si>
+  <si>
+    <t>AP800</t>
+  </si>
+  <si>
+    <t>Sonstige Leistungen</t>
+  </si>
+  <si>
+    <t>Gesamt Tage</t>
   </si>
 </sst>
 </file>
@@ -237,19 +268,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -269,6 +292,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -286,38 +322,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+      <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,23 +466,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF133EC0-D8AB-4598-AD8E-073B12807245}" name="Table1" displayName="Table1" ref="J13:L17" totalsRowShown="0">
-  <autoFilter ref="J13:L17" xr:uid="{DF133EC0-D8AB-4598-AD8E-073B12807245}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF133EC0-D8AB-4598-AD8E-073B12807245}" name="Table1" displayName="Table1" ref="E7:G11" totalsRowShown="0">
+  <autoFilter ref="E7:G11" xr:uid="{DF133EC0-D8AB-4598-AD8E-073B12807245}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A79D0F8-F2E0-4F57-8805-2E974AF8AC0B}" name="Akteure"/>
     <tableColumn id="2" xr3:uid="{57DE102E-3511-4D36-8C2E-3E3773CA52FA}" name="LÖHNE pro Tage"/>
-    <tableColumn id="3" xr3:uid="{013A05FB-D82E-487A-ADDE-B83DF29B2841}" name="LÖHNE pro Stunde" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[LÖHNE pro Tage]]/8</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{013A05FB-D82E-487A-ADDE-B83DF29B2841}" name="LÖHNE pro Stunde" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -387,7 +518,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -493,7 +624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,818 +774,1201 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B13:L46"/>
+  <dimension ref="B7:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>62</v>
       </c>
-      <c r="J13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="e">
-        <f>SUM(D15:D18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="9" t="e">
-        <f>F14-D14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="9" t="e">
-        <f>D14*1.19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="8">
-        <f>SUM(G15:G18)</f>
-        <v>20</v>
-      </c>
-      <c r="H14" s="5">
-        <f>PRODUCT(G14,8)</f>
-        <v>160</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6">
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2">
         <f>PRODUCT(125 * 8)</f>
         <v>1000</v>
       </c>
-      <c r="L14" s="6">
+      <c r="G8" s="2">
         <f>Table1[[#This Row],[LÖHNE pro Tage]]/8</f>
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="10" t="e">
-        <f>PRODUCT(K14,G15)+PRODUCT(#REF!,G15)+PRODUCT(K17,G15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="10" t="e">
-        <f t="shared" ref="E15:E18" si="0">F15-D15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="10" t="e">
-        <f t="shared" ref="F15:F40" si="1">D15*1.19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="11">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" ref="H15:H40" si="2">PRODUCT(G15,8)</f>
-        <v>160</v>
-      </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
         <f>PRODUCT(250*8)</f>
         <v>2000</v>
       </c>
-      <c r="L15" s="6">
+      <c r="G9" s="2">
         <f>Table1[[#This Row],[LÖHNE pro Tage]]/8</f>
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="6">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
         <f>PRODUCT(300*8)</f>
         <v>2400</v>
       </c>
-      <c r="L16" s="6">
+      <c r="G10" s="2">
         <f>Table1[[#This Row],[LÖHNE pro Tage]]/8</f>
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9">
+        <f>SUM(D15:D18)</f>
+        <v>722600</v>
+      </c>
+      <c r="E14" s="9">
+        <f>F14-D14</f>
+        <v>137294</v>
+      </c>
+      <c r="F14" s="9">
+        <f>D14*1.19</f>
+        <v>859894</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(I15:K18)</f>
+        <v>462</v>
+      </c>
+      <c r="H14" s="13">
+        <f>PRODUCT(G14,8)</f>
+        <v>3696</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="14">
+        <f>(I15*F8)+(J15*F9)</f>
+        <v>30000</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" ref="E15:E18" si="0">F15-D15</f>
+        <v>5700</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" ref="F15:F36" si="1">D15*1.19</f>
+        <v>35700</v>
+      </c>
+      <c r="G15" s="15">
+        <f>SUM(I15:K15)</f>
+        <v>20</v>
+      </c>
+      <c r="H15" s="13">
+        <f>PRODUCT(G15,8)</f>
+        <v>160</v>
+      </c>
+      <c r="I15" s="13">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="J15" s="13">
+        <v>10</v>
+      </c>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="14">
+        <f>(J16*F9)+(I16*F8)</f>
+        <v>430000</v>
+      </c>
+      <c r="E16" s="14">
+        <f t="shared" si="0"/>
+        <v>81700</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>511700</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(I16:K16)</f>
+        <v>280</v>
+      </c>
+      <c r="H16" s="13">
+        <f>PRODUCT(G16,8)</f>
+        <v>2240</v>
+      </c>
+      <c r="I16" s="13">
+        <v>130</v>
+      </c>
+      <c r="J16" s="13">
+        <v>150</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="14">
+        <f>(I17*F8)+(J17*F9)+(K17*F10)</f>
+        <v>237000</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>45030</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>282030</v>
+      </c>
+      <c r="G17" s="15">
+        <f>SUM(I17:K17)</f>
+        <v>150</v>
+      </c>
+      <c r="H17" s="13">
+        <f>PRODUCT(G17,8)</f>
+        <v>1200</v>
+      </c>
+      <c r="I17" s="13">
+        <v>65</v>
+      </c>
+      <c r="J17" s="13">
+        <v>80</v>
+      </c>
+      <c r="K17" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
+      <c r="D18" s="14">
+        <f>(J18*F9)+(K18*F10)</f>
+        <v>25600</v>
+      </c>
+      <c r="E18" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
+        <v>4864</v>
+      </c>
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <v>30464</v>
+      </c>
+      <c r="G18" s="15">
+        <f>SUM(I18:K18)</f>
+        <v>12</v>
+      </c>
+      <c r="H18" s="13">
+        <f>PRODUCT(G18,8)</f>
+        <v>96</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <v>8</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>40</v>
+      <c r="K18" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D19" s="9">
         <f>SUM(D20:D21)</f>
-        <v>33000</v>
+        <v>22000</v>
       </c>
       <c r="E19" s="9">
         <f>F19-D19</f>
-        <v>6270</v>
+        <v>4180</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="1"/>
-        <v>39270</v>
-      </c>
-      <c r="G19" s="8">
-        <f>SUM(G20:G21)</f>
+        <v>26180</v>
+      </c>
+      <c r="G19" s="11">
+        <f>SUM(I20:K21)</f>
         <v>11</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="13">
+        <f>PRODUCT(G19,8)</f>
+        <v>88</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="14">
+        <f>(J20*F9)</f>
+        <v>16000</v>
+      </c>
+      <c r="E20" s="14">
+        <f t="shared" ref="E20:E21" si="2">F20-D20</f>
+        <v>3040</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="1"/>
+        <v>19040</v>
+      </c>
+      <c r="G20" s="15">
+        <f>SUM(I20:K20)</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="13">
+        <f>PRODUCT(G20,8)</f>
+        <v>64</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <v>8</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="14">
+        <f>(J21*F9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E21" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="1"/>
+        <v>7140</v>
+      </c>
+      <c r="G21" s="15">
+        <f>SUM(I21:K21)</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="13">
+        <f>PRODUCT(G21,8)</f>
+        <v>24</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>3</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="9">
+        <f>SUM(D23:D24)</f>
+        <v>25000</v>
+      </c>
+      <c r="E22" s="9">
+        <f>F22-D22</f>
+        <v>4750</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>29750</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(I23:K24)</f>
+        <v>20</v>
+      </c>
+      <c r="H22" s="13">
+        <f>PRODUCT(G22,8)</f>
+        <v>160</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="10">
-        <f>(K14+K15)*G20</f>
+      <c r="C23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="14">
+        <f>(I23*F8)</f>
+        <v>5000</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" ref="E23:E36" si="3">F23-D23</f>
+        <v>950</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+      <c r="G23" s="15">
+        <f>SUM(I23:K23)</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="13">
+        <f>PRODUCT(G23,8)</f>
+        <v>40</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="14">
+        <f>(I24*F8)+(J24*F9)</f>
+        <v>20000</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="1"/>
+        <v>23800</v>
+      </c>
+      <c r="G24" s="15">
+        <f>SUM(I24:K24)</f>
+        <v>15</v>
+      </c>
+      <c r="H24" s="13">
+        <f>PRODUCT(G24,8)</f>
+        <v>120</v>
+      </c>
+      <c r="I24" s="13">
+        <v>10</v>
+      </c>
+      <c r="J24" s="13">
+        <v>5</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="9">
+        <f>SUM(D26:D29)</f>
+        <v>53000</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="3"/>
+        <v>10070</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>63070</v>
+      </c>
+      <c r="G25" s="11">
+        <f>SUM(I26:K29)</f>
+        <v>30</v>
+      </c>
+      <c r="H25" s="13">
+        <f>PRODUCT(G25,8)</f>
+        <v>240</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="24"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="14">
+        <f>(J26*F9)</f>
         <v>24000</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" ref="E20:E21" si="3">F20-D20</f>
+      <c r="E26" s="14">
+        <f t="shared" si="3"/>
         <v>4560</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F26" s="14">
         <f t="shared" si="1"/>
         <v>28560</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G26" s="15">
+        <f>SUM(I26:K26)</f>
+        <v>12</v>
+      </c>
+      <c r="H26" s="13">
+        <f>PRODUCT(G26,8)</f>
+        <v>96</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>12</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="14">
+        <f>(I27*F8)+(J27*F9)</f>
+        <v>11000</v>
+      </c>
+      <c r="E27" s="14">
+        <f t="shared" si="3"/>
+        <v>2090</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="1"/>
+        <v>13090</v>
+      </c>
+      <c r="G27" s="15">
+        <f>SUM(I27:K27)</f>
+        <v>7</v>
+      </c>
+      <c r="H27" s="13">
+        <f>PRODUCT(G27,8)</f>
+        <v>56</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>4</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="14">
+        <f>(I28*F8)+(J28*F9)</f>
+        <v>12000</v>
+      </c>
+      <c r="E28" s="14">
+        <f t="shared" si="3"/>
+        <v>2280</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="1"/>
+        <v>14280</v>
+      </c>
+      <c r="G28" s="15">
+        <f>SUM(I28:K28)</f>
         <v>8</v>
       </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
+      <c r="H28" s="13">
+        <f>PRODUCT(G28,8)</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10">
-        <f>(K14+K15)*G21</f>
-        <v>9000</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="I28" s="13">
+        <v>4</v>
+      </c>
+      <c r="J28" s="13">
+        <v>4</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="14">
+        <f>(J29*F9)</f>
+        <v>6000</v>
+      </c>
+      <c r="E29" s="14">
         <f t="shared" si="3"/>
-        <v>1710</v>
-      </c>
-      <c r="F21" s="10">
+        <v>1140</v>
+      </c>
+      <c r="F29" s="14">
         <f t="shared" si="1"/>
-        <v>10710</v>
-      </c>
-      <c r="G21" s="11">
+        <v>7140</v>
+      </c>
+      <c r="G29" s="15">
+        <f>SUM(I29:K29)</f>
         <v>3</v>
       </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
+      <c r="H29" s="13">
+        <f>PRODUCT(G29,8)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="9">
-        <f>SUM(D23:D24)</f>
-        <v>5000</v>
-      </c>
-      <c r="E22" s="9">
-        <f>F22-D22</f>
-        <v>950</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="1"/>
-        <v>5950</v>
-      </c>
-      <c r="G22" s="8">
-        <f>SUM(G23:G24)</f>
-        <v>5</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10">
-        <f>G23*K14</f>
-        <v>5000</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" ref="E23:E40" si="4">F23-D23</f>
-        <v>950</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="1"/>
-        <v>5950</v>
-      </c>
-      <c r="G23" s="11">
-        <v>5</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="9">
-        <f>SUM(D26:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <f>SUM(G26:G29)</f>
-        <v>12</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="11">
-        <v>12</v>
-      </c>
-      <c r="H26" s="5">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="5">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="D30" s="9">
         <f>SUM(D31:D34)</f>
-        <v>0</v>
+        <v>62000</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>11780</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <f>SUM(G31:G34)</f>
-        <v>78</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="2"/>
-        <v>624</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+        <v>73780</v>
+      </c>
+      <c r="G30" s="11">
+        <f>SUM(I31:K34)</f>
+        <v>39</v>
+      </c>
+      <c r="H30" s="13">
+        <f>PRODUCT(G30,8)</f>
+        <v>312</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="14">
+        <f>(J31*F9)</f>
+        <v>4000</v>
+      </c>
+      <c r="E31" s="14">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="1"/>
+        <v>4760</v>
+      </c>
+      <c r="G31" s="15">
+        <f>SUM(I31:K31)</f>
+        <v>2</v>
+      </c>
+      <c r="H31" s="13">
+        <f>PRODUCT(G31,8)</f>
+        <v>16</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="D32" s="14">
+        <f>(I32*F8)+(J32*F9)</f>
+        <v>16000</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="3"/>
+        <v>3040</v>
+      </c>
+      <c r="F32" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="11">
-        <v>7</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
+        <v>19040</v>
+      </c>
+      <c r="G32" s="15">
+        <f>SUM(I32:K32)</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="13">
+        <f>PRODUCT(G31,8)</f>
+        <v>16</v>
+      </c>
+      <c r="I32" s="13">
+        <v>4</v>
+      </c>
+      <c r="J32" s="13">
+        <v>6</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
+      <c r="D33" s="14">
+        <f>(I33*F8)+(J33*F9)</f>
+        <v>22000</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="3"/>
+        <v>4180</v>
+      </c>
+      <c r="F33" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="11">
+        <v>26180</v>
+      </c>
+      <c r="G33" s="15">
+        <f>SUM(I33:K33)</f>
+        <v>12</v>
+      </c>
+      <c r="H33" s="13">
+        <f>PRODUCT(G33,8)</f>
+        <v>96</v>
+      </c>
+      <c r="I33" s="13">
+        <v>2</v>
+      </c>
+      <c r="J33" s="13">
         <v>10</v>
       </c>
-      <c r="H32" s="5">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
+      <c r="D34" s="14">
+        <f>(I34*F8)+(J34*F9)</f>
+        <v>20000</v>
+      </c>
+      <c r="E34" s="14">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="F34" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="11">
-        <v>6</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+        <v>23800</v>
+      </c>
+      <c r="G34" s="15">
+        <f>SUM(I34:K34)</f>
+        <v>15</v>
+      </c>
+      <c r="H34" s="13">
+        <f>PRODUCT(G34,8)</f>
+        <v>120</v>
+      </c>
+      <c r="I34" s="13">
+        <v>10</v>
+      </c>
+      <c r="J34" s="13">
+        <v>5</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="11">
-        <v>55</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D35" s="9">
         <f>SUM(D36:D37)</f>
-        <v>0</v>
+        <v>385000</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>73150</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <f>SUM(G36:G37)</f>
-        <v>12</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="2"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+        <v>458150</v>
+      </c>
+      <c r="G35" s="11">
+        <f>SUM(I36:K38)</f>
+        <v>190</v>
+      </c>
+      <c r="H35" s="13">
+        <f>PRODUCT(G35,8)</f>
+        <v>1520</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="24"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="14">
+        <f>(I36*F8)+(J36*F9)+(500*200)</f>
+        <v>265000</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="3"/>
+        <v>50350</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="1"/>
+        <v>315350</v>
+      </c>
+      <c r="G36" s="15">
+        <f>SUM(I36:K36)</f>
+        <v>110</v>
+      </c>
+      <c r="H36" s="13">
+        <f>PRODUCT(G36,8)</f>
+        <v>880</v>
+      </c>
+      <c r="I36" s="13">
+        <v>55</v>
+      </c>
+      <c r="J36" s="13">
+        <v>55</v>
+      </c>
+      <c r="K36" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="14">
+        <f>(I37*F8)+(J37*F9)</f>
+        <v>120000</v>
+      </c>
+      <c r="E37" s="14">
+        <f t="shared" ref="E37:E44" si="4">F37-D37</f>
+        <v>22800</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" ref="F37:F44" si="5">D37*1.19</f>
+        <v>142800</v>
+      </c>
+      <c r="G37" s="15">
+        <f>SUM(I37:K37)</f>
+        <v>80</v>
+      </c>
+      <c r="H37" s="13">
+        <f>PRODUCT(G37,8)</f>
+        <v>640</v>
+      </c>
+      <c r="I37" s="13">
+        <v>40</v>
+      </c>
+      <c r="J37" s="13">
+        <v>40</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="11">
-        <v>6</v>
-      </c>
-      <c r="H36" s="5">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10">
-        <f t="shared" ref="E37:E41" si="5">F37-D37</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="10">
-        <f t="shared" ref="F37:F41" si="6">D37*1.19</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <v>6</v>
-      </c>
-      <c r="H37" s="5">
-        <f t="shared" ref="H37:H41" si="7">PRODUCT(G37,8)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10">
+      <c r="F38" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="5">
-        <f t="shared" si="7"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="13">
+        <f>PRODUCT(G38,8)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>57</v>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D39" s="9">
         <f>SUM(D40:D41)</f>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="E39" s="9">
+        <f t="shared" si="4"/>
+        <v>3990</v>
+      </c>
+      <c r="F39" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <f>SUM(G40:G41)</f>
-        <v>21</v>
-      </c>
-      <c r="H39" s="5">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+        <v>24990</v>
+      </c>
+      <c r="G39" s="11">
+        <f>SUM(I40:K41)</f>
+        <v>12</v>
+      </c>
+      <c r="H39" s="13">
+        <f>PRODUCT(G39,8)</f>
+        <v>96</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="24"/>
+    </row>
+    <row r="40" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="14">
+        <f>(I40*F8)+(J40*F9)</f>
+        <v>12000</v>
+      </c>
+      <c r="E40" s="14">
+        <f t="shared" si="4"/>
+        <v>2280</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="5"/>
+        <v>14280</v>
+      </c>
+      <c r="G40" s="15">
+        <f>SUM(I40:K40)</f>
+        <v>6</v>
+      </c>
+      <c r="H40" s="13">
+        <f>PRODUCT(G40,8)</f>
+        <v>48</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
+        <v>6</v>
+      </c>
+      <c r="K40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10">
+      <c r="C41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="14">
+        <f>(I41*F8)+(J41*F9)</f>
+        <v>9000</v>
+      </c>
+      <c r="E41" s="14">
+        <f t="shared" si="4"/>
+        <v>1710</v>
+      </c>
+      <c r="F41" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
-        <v>10</v>
-      </c>
-      <c r="H40" s="5">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10">
+        <v>10710</v>
+      </c>
+      <c r="G41" s="25">
+        <f>SUM(I41:K41)</f>
+        <v>6</v>
+      </c>
+      <c r="H41" s="19">
+        <f>PRODUCT(G41,8)</f>
+        <v>48</v>
+      </c>
+      <c r="I41" s="19">
+        <v>3</v>
+      </c>
+      <c r="J41" s="19">
+        <v>3</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="14">
+        <f>SUM(D43:D44)</f>
+        <v>31500</v>
+      </c>
+      <c r="E42" s="14">
+        <f t="shared" si="4"/>
+        <v>5985</v>
+      </c>
+      <c r="F42" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="11">
-        <v>11</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="4" t="e">
-        <f>D14+D19+D22+D25+D30+D35+D38+D42</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E44" s="4" t="e">
-        <f>E14+E19+E22+E25+E30+E35+E38+E42</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F44" s="4" t="e">
-        <f>F14+F19+F22+F25+F30+F35+F38+F42</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G44" s="2">
-        <f>SUM(G14,G19,G22,G25,G30,G35,G38)</f>
-        <v>138</v>
-      </c>
-      <c r="H44" s="2">
-        <f>SUM(H14,H19,H22,H25,H30,H35,H38)</f>
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
+        <v>37485</v>
+      </c>
+      <c r="G42" s="8">
+        <f>SUM(G39,G35,G30,G25,G22,G19,G14)</f>
+        <v>764</v>
+      </c>
+      <c r="H42" s="8">
+        <f>SUM(H14:H41)</f>
+        <v>12168</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="14">
+        <v>30000</v>
+      </c>
+      <c r="E43" s="14">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+      <c r="F43" s="26">
+        <f t="shared" si="5"/>
+        <v>35700</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="20">
+        <v>1500</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" si="4"/>
+        <v>285</v>
+      </c>
+      <c r="F44" s="27">
+        <f t="shared" si="5"/>
+        <v>1785</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3">
+        <f>D14+D19+D22+D25+D30+D35+D39+D42</f>
+        <v>1322100</v>
+      </c>
+      <c r="E45" s="3">
+        <f>E14+E19+E22+E25+E30+E35+E38+E43</f>
+        <v>246924</v>
+      </c>
+      <c r="F45" s="3">
+        <f>F14+F19+F22+F25+F30+F35+F39+F42</f>
+        <v>1573299</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I35:K35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1464,15 +1978,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010057BB080C3E1E5B49B8E8D514D23E67B7" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="1d908c9d467607fd30121375eed9d493">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f5d0c554-a2ad-40e2-bf76-6eadde83b53a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f6ec5742c104e45e47d4885de4c237b" ns2:_="">
     <xsd:import namespace="f5d0c554-a2ad-40e2-bf76-6eadde83b53a"/>
@@ -1630,6 +2135,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1637,14 +2151,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{699E4762-AC98-4105-AE8F-B6FDF05B68DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3031FB3A-45F5-448D-8E07-06815405F719}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1662,6 +2168,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{699E4762-AC98-4105-AE8F-B6FDF05B68DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAECEDC3-D12D-434B-BAC8-B421E6AE452E}">
   <ds:schemaRefs>
